--- a/DRE/PendingDocumentation_150424.xlsx
+++ b/DRE/PendingDocumentation_150424.xlsx
@@ -71,9 +71,6 @@
     <t>~/DRE/_DRE_CapitulosPorFirmar</t>
   </si>
   <si>
-    <t>Missing Addendum</t>
-  </si>
-  <si>
     <t>(i)   Invitation Letter 
 (ii)  Integrator Survey 
 (iii) Demo Summons</t>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>BD9 Claims - Draft version</t>
+  </si>
+  <si>
+    <t>Missing Addendum/Appendix/Annex</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +595,7 @@
     <col min="4" max="4" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="47.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -610,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>8</v>
@@ -699,7 +699,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -736,19 +736,19 @@
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7">
         <v>5</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -757,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="105" x14ac:dyDescent="0.25">
@@ -765,28 +765,28 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="7">
         <v>5</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="75" x14ac:dyDescent="0.25">
@@ -794,28 +794,28 @@
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7">
         <v>5</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -823,94 +823,94 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7">
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D13" s="7">
         <v>9</v>
@@ -922,161 +922,161 @@
         <v>2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="H18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
